--- a/KS/周KS-経歴書-10.xlsx
+++ b/KS/周KS-経歴書-10.xlsx
@@ -208,9 +208,8 @@
 【フレームワーク】
 Asp.net  WebForm
 【DB】
-Sql Server 2017
-SSAS+SSIS+SSMS+
-SSRS+SSDT+Report Viewer
+Sql Server 2017+SSMS
+SSRS+SSDT
 【サーバー】
 Windows Server 2016
 IIS   Bitbucket +Sourcetree
@@ -668,12 +667,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;;@"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="yyyy&quot;年&quot;m&quot;月&quot;;@"/>
+    <numFmt numFmtId="178" formatCode="yyyy/mm"/>
     <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="yyyy/mm"/>
+    <numFmt numFmtId="180" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="31">
     <font>
@@ -726,12 +725,65 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -745,53 +797,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -806,7 +813,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -820,6 +827,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -828,47 +857,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -899,7 +898,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -911,7 +910,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -923,13 +934,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -941,73 +994,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1025,19 +1018,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1049,7 +1042,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1061,25 +1060,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1287,6 +1286,65 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1314,215 +1372,156 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyProtection="0">
@@ -1578,7 +1577,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="4" xfId="51" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="4" xfId="51" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1631,7 +1630,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="33" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="2" xfId="51" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="2" xfId="51" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1647,7 +1646,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="33" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="4" xfId="51" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="4" xfId="51" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1672,7 +1671,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="33" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="6" xfId="51" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="6" xfId="51" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1682,7 +1681,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="33" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="4" xfId="51" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="4" xfId="51" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="51" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2449,8 +2448,8 @@
   <sheetPr/>
   <dimension ref="A1:AF24"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9:AA11"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="O15" sqref="O15:T15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
